--- a/Generator_04_09/History.xlsx
+++ b/Generator_04_09/History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vahag\Desktop\BaseFolder\University\Thesis\GitFiles1\Generator_04_09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Thesis\Resolution1\Generator_04_09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B216E90-8A2B-4DDA-8886-1EEFACD30F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E22ED3C-C0A5-4DE5-8642-0EA6D2FAA2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3588" yWindow="492" windowWidth="17196" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="1500" windowWidth="20865" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>CAT001-0</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>CAT004-0</t>
+  </si>
+  <si>
+    <t>GEO001-0</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -375,15 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>1</v>
@@ -398,10 +404,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -416,7 +422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -430,7 +436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -444,7 +450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +464,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -472,7 +478,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -486,7 +492,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -498,6 +504,23 @@
       </c>
       <c r="E9">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Generator_04_09/History.xlsx
+++ b/Generator_04_09/History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Thesis\Resolution1\Generator_04_09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vahag\Desktop\BaseFolder\University\Thesis\GitFiles1\Generator_04_09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E22ED3C-C0A5-4DE5-8642-0EA6D2FAA2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602146FD-8A18-4C25-870B-59D965D671EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="1500" windowWidth="20865" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23325" yWindow="3015" windowWidth="21600" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,10 @@
     <t>CAT004-0</t>
   </si>
   <si>
-    <t>GEO001-0</t>
-  </si>
-  <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>GEO006+4</t>
   </si>
 </sst>
 </file>
@@ -384,12 +384,12 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>1</v>
@@ -404,10 +404,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -422,7 +422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -436,7 +436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -450,7 +450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +464,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -478,7 +478,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -492,7 +492,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -506,12 +506,12 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Generator_04_09/History.xlsx
+++ b/Generator_04_09/History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vahag\Desktop\BaseFolder\University\Thesis\GitFiles1\Generator_04_09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Thesis\Resolution1\Generator_04_09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602146FD-8A18-4C25-870B-59D965D671EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61920E18-CF36-4E61-9412-005AA073DB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23325" yWindow="3015" windowWidth="21600" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="1500" windowWidth="20865" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>CAT001-0</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>GEO006+4</t>
+  </si>
+  <si>
+    <t>generated_axioms</t>
   </si>
 </sst>
 </file>
@@ -381,15 +384,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>1</v>
@@ -404,10 +410,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -422,7 +428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -436,7 +442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -450,7 +456,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +470,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -478,7 +484,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -492,7 +498,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -506,7 +512,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -521,6 +527,20 @@
       </c>
       <c r="E10">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Generator_04_09/History.xlsx
+++ b/Generator_04_09/History.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Thesis\Resolution1\Generator_04_09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61920E18-CF36-4E61-9412-005AA073DB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9ABAD4-2FC4-486A-9CF9-1B4CAAF65FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="1500" windowWidth="20865" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="1350" windowWidth="20340" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>CAT001-0</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>generated_axioms</t>
+  </si>
+  <si>
+    <t>generated_axiom_file_1</t>
+  </si>
+  <si>
+    <t>generated_axiom_file_2</t>
   </si>
 </sst>
 </file>
@@ -99,11 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +473,7 @@
       <c r="D6">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>10000</v>
       </c>
     </row>
@@ -480,7 +487,7 @@
       <c r="D7">
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>10000</v>
       </c>
     </row>
@@ -494,7 +501,7 @@
       <c r="D8">
         <v>8</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>10000</v>
       </c>
     </row>
@@ -508,7 +515,7 @@
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>10000</v>
       </c>
     </row>
@@ -539,8 +546,36 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Generator_04_09/History.xlsx
+++ b/Generator_04_09/History.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Thesis\Resolution1\Generator_04_09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vahag\Desktop\BaseFolder\University\Thesis\GitFiles1\Generator_04_09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9ABAD4-2FC4-486A-9CF9-1B4CAAF65FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F157BA8-E9C5-41C0-A5F0-9DF4DDD6A661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="1350" windowWidth="20340" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23325" yWindow="3015" windowWidth="21600" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>CAT001-0</t>
   </si>
@@ -64,13 +73,52 @@
   </si>
   <si>
     <t>generated_axiom_file_2</t>
+  </si>
+  <si>
+    <t>gnn_model3.pt</t>
+  </si>
+  <si>
+    <t>generated_axioms_N=100_T=2.0</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>0-1999</t>
+  </si>
+  <si>
+    <t>2000-3999Yes</t>
+  </si>
+  <si>
+    <t>4000-5999</t>
+  </si>
+  <si>
+    <t>6000-7999</t>
+  </si>
+  <si>
+    <t>8000-9999</t>
+  </si>
+  <si>
+    <t>generated_axioms_N=100_T=6.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +131,18 @@
       <color rgb="FF6A9955"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,12 +165,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,18 +455,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>1</v>
@@ -416,11 +482,29 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -434,8 +518,23 @@
       <c r="E3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>30</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -448,8 +547,23 @@
       <c r="E4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4">
+        <v>30</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -462,8 +576,23 @@
       <c r="E5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5">
+        <v>30</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,8 +605,23 @@
       <c r="E6" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6">
+        <v>30</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -490,8 +634,23 @@
       <c r="E7" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7">
+        <v>30</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -504,8 +663,23 @@
       <c r="E8" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8">
+        <v>30</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -518,8 +692,20 @@
       <c r="E9" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <v>2000</v>
+      </c>
+      <c r="L9">
+        <v>30</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -535,8 +721,20 @@
       <c r="E10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>2000</v>
+      </c>
+      <c r="L10">
+        <v>30</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -550,7 +748,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -564,7 +762,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -579,6 +777,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Generator_04_09/History.xlsx
+++ b/Generator_04_09/History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vahag\Desktop\BaseFolder\University\Thesis\GitFiles1\Generator_04_09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Thesis\Resolution1\Generator_04_09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F157BA8-E9C5-41C0-A5F0-9DF4DDD6A661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAA1D73-BC16-41FA-B44E-ADE01E79A0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23325" yWindow="3015" windowWidth="21600" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="1785" windowWidth="20340" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>CAT001-0</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>generated_axioms_N=100_T=6.0</t>
+  </si>
+  <si>
+    <t>generated_axioms_N=100_T=4.0</t>
   </si>
 </sst>
 </file>
@@ -458,17 +461,17 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>1</v>
@@ -498,13 +501,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -534,7 +537,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -563,7 +566,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -592,7 +595,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +624,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -650,7 +653,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -679,7 +682,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -705,7 +708,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -722,7 +725,7 @@
         <v>1000</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J10">
         <v>2000</v>
@@ -734,7 +737,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -748,7 +751,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -762,7 +765,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>

--- a/Generator_04_09/History.xlsx
+++ b/Generator_04_09/History.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Thesis\Resolution1\Generator_04_09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAA1D73-BC16-41FA-B44E-ADE01E79A0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2730A791-2925-4FA8-AEF4-509771B890F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="1785" windowWidth="20340" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="1335" windowWidth="20340" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>CAT001-0</t>
   </si>
@@ -115,6 +115,24 @@
   </si>
   <si>
     <t>generated_axioms_N=100_T=4.0</t>
+  </si>
+  <si>
+    <t>generated_axioms_N=100_T=8.0</t>
+  </si>
+  <si>
+    <t>gnn_model4.pt</t>
+  </si>
+  <si>
+    <t>gen_ax_file_3_N=100_T=4.0</t>
+  </si>
+  <si>
+    <t>gen_ax_file_3_N=100_T=6.0</t>
+  </si>
+  <si>
+    <t>gen_ax_file_3_N=100_T=8.0</t>
+  </si>
+  <si>
+    <t>gen_ax_file_3_N=100_T=2.0</t>
   </si>
 </sst>
 </file>
@@ -458,17 +476,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -696,10 +714,13 @@
         <v>10000</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J9">
         <v>2000</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
       </c>
       <c r="L9">
         <v>30</v>
@@ -725,10 +746,13 @@
         <v>1000</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J10">
         <v>2000</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
       </c>
       <c r="L10">
         <v>30</v>
@@ -750,6 +774,21 @@
       <c r="E11" s="2">
         <v>10000</v>
       </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11">
+        <v>2000</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11">
+        <v>30</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1E-4</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -778,6 +817,83 @@
       <c r="E13">
         <v>1000</v>
       </c>
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20">
+        <v>5000</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20">
+        <v>50</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21">
+        <v>2000</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21">
+        <v>50</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22">
+        <v>2000</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22">
+        <v>50</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23">
+        <v>2000</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="M24" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Generator_04_09/History.xlsx
+++ b/Generator_04_09/History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Thesis\Resolution1\Generator_04_09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vahag\Desktop\BaseFolder\University\Thesis\GitFiles1\Generator_04_09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2730A791-2925-4FA8-AEF4-509771B890F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB36679E-A77B-4C74-A279-D7B559EF9920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1335" windowWidth="20340" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22995" yWindow="3285" windowWidth="21600" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>CAT001-0</t>
   </si>
@@ -133,6 +133,21 @@
   </si>
   <si>
     <t>gen_ax_file_3_N=100_T=2.0</t>
+  </si>
+  <si>
+    <t>gen_ax_file_4_N=100_T=4.0</t>
+  </si>
+  <si>
+    <t>gen_ax_file_5_N=100_T=6.0</t>
+  </si>
+  <si>
+    <t>gen_ax_file_6_N=100_T=8.0</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>gen_ax_file_7_N=100_T=8.0</t>
   </si>
 </sst>
 </file>
@@ -476,20 +491,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:K23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>1</v>
@@ -519,13 +534,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -555,7 +570,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -584,7 +599,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -613,7 +628,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +657,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -671,7 +686,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -700,7 +715,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -729,7 +744,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -761,7 +776,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -790,7 +805,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -804,7 +819,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -818,12 +833,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H20" s="1"/>
       <c r="I20" t="s">
         <v>32</v>
@@ -841,7 +856,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:13" x14ac:dyDescent="0.3">
       <c r="I21" t="s">
         <v>29</v>
       </c>
@@ -858,7 +873,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="22" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>30</v>
       </c>
@@ -875,7 +890,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="23" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:13" x14ac:dyDescent="0.3">
       <c r="I23" t="s">
         <v>31</v>
       </c>
@@ -892,8 +907,44 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="24" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24">
+        <v>5000</v>
+      </c>
       <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="27" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27">
+        <v>1700</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Generator_04_09/History.xlsx
+++ b/Generator_04_09/History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vahag\Desktop\BaseFolder\University\Thesis\GitFiles1\Generator_04_09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Thesis\Resolution1\Generator_04_09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB36679E-A77B-4C74-A279-D7B559EF9920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3A4DC5-4F91-4608-83D8-6868B4C7B4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22995" yWindow="3285" windowWidth="21600" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="1335" windowWidth="20340" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>CAT001-0</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>gen_ax_file_7_N=100_T=8.0</t>
+  </si>
+  <si>
+    <t>gnn_model5.pt</t>
+  </si>
+  <si>
+    <t>CAT001-0_N=50_T=6.0</t>
+  </si>
+  <si>
+    <t>CAT001-0_N=50_T=4.0</t>
+  </si>
+  <si>
+    <t>CAT001-0_N=50_T=8.0</t>
   </si>
 </sst>
 </file>
@@ -491,20 +503,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>1</v>
@@ -534,13 +546,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -570,7 +582,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -599,7 +611,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -628,7 +640,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +669,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -686,7 +698,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -715,7 +727,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -744,7 +756,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -776,7 +788,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -805,7 +817,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -819,7 +831,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -833,12 +845,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H20" s="1"/>
       <c r="I20" t="s">
         <v>32</v>
@@ -856,7 +868,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:13" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
         <v>29</v>
       </c>
@@ -873,7 +885,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="22" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:13" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
         <v>30</v>
       </c>
@@ -890,7 +902,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="23" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:13" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
         <v>31</v>
       </c>
@@ -907,7 +919,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="24" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:13" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>33</v>
       </c>
@@ -916,7 +928,7 @@
       </c>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:13" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>34</v>
       </c>
@@ -924,7 +936,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="26" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
         <v>36</v>
       </c>
@@ -935,7 +947,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="27" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
         <v>36</v>
       </c>
@@ -944,6 +956,47 @@
       </c>
       <c r="J27">
         <v>1700</v>
+      </c>
+    </row>
+    <row r="30" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31">
+        <v>2000</v>
+      </c>
+      <c r="L31">
+        <v>50</v>
+      </c>
+      <c r="M31" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32">
+        <v>2000</v>
+      </c>
+      <c r="L32">
+        <v>50</v>
+      </c>
+      <c r="M32" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Generator_04_09/History.xlsx
+++ b/Generator_04_09/History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Thesis\Resolution1\Generator_04_09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vahag\Desktop\BaseFolder\University\Thesis\GitFiles1\Generator_04_09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3A4DC5-4F91-4608-83D8-6868B4C7B4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62318DD-A7A1-4297-A0FB-C0EA08A73334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1335" windowWidth="20340" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22995" yWindow="3285" windowWidth="21600" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>CAT001-0</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>CAT001-0_N=50_T=8.0</t>
+  </si>
+  <si>
+    <t>CAT001-0_N=50_T=2.0</t>
   </si>
 </sst>
 </file>
@@ -503,20 +506,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>1</v>
@@ -546,13 +549,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -582,7 +585,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -611,7 +614,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -640,7 +643,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +672,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -698,7 +701,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -727,7 +730,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -756,7 +759,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -788,7 +791,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -817,7 +820,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -831,7 +834,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -845,12 +848,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H20" s="1"/>
       <c r="I20" t="s">
         <v>32</v>
@@ -868,7 +871,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:13" x14ac:dyDescent="0.3">
       <c r="I21" t="s">
         <v>29</v>
       </c>
@@ -885,7 +888,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="22" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>30</v>
       </c>
@@ -902,7 +905,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="23" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:13" x14ac:dyDescent="0.3">
       <c r="I23" t="s">
         <v>31</v>
       </c>
@@ -919,7 +922,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="24" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:13" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
         <v>33</v>
       </c>
@@ -928,7 +931,7 @@
       </c>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:13" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>34</v>
       </c>
@@ -936,7 +939,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="26" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H26" t="s">
         <v>36</v>
       </c>
@@ -947,7 +950,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="27" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H27" t="s">
         <v>36</v>
       </c>
@@ -958,12 +961,12 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="30" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H30" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>39</v>
       </c>
@@ -977,7 +980,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="32" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>40</v>
       </c>
@@ -991,11 +994,19 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I33" t="s">
         <v>41</v>
       </c>
       <c r="J33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34">
         <v>2000</v>
       </c>
     </row>
